--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synge\IdeaProjects\сети_курсач\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redmibook\IdeaProjects\-_-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8AB3D4-1533-4F7D-877A-88AC98440437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3AC97-3628-4AB6-9A0E-503243E0722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +353,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +371,7 @@
         <v>2.706</v>
       </c>
       <c r="B2">
-        <v>0.89800000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redmibook\IdeaProjects\-_-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synge\IdeaProjects\сети_курсач\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3AC97-3628-4AB6-9A0E-503243E0722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8780E0-3AB8-47B6-8713-167A333C8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,63 +346,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>0.63700000000000001</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2.706</v>
       </c>
-      <c r="B2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>7.1680000000000001</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>14.438000000000001</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5.3070000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>24.059000000000001</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>9.8049999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34.244999999999997</v>
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>34.344999999999999</v>
+      </c>
+      <c r="C6">
         <v>16.015000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>42.514000000000003</v>
+      </c>
+      <c r="C7">
+        <v>25.402999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>44.948</v>
+      </c>
+      <c r="C8">
+        <v>37.061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37.808</v>
+      </c>
+      <c r="C9">
+        <v>50.731000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17.818000000000001</v>
+      </c>
+      <c r="C10">
+        <v>66.227999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-16.907</v>
+      </c>
+      <c r="C11">
+        <v>84.558000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-66.114000000000004</v>
+      </c>
+      <c r="C12">
+        <v>104.26900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-126.102</v>
+      </c>
+      <c r="C13">
+        <v>126.471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-194.15299999999999</v>
+      </c>
+      <c r="C14">
+        <v>148.96299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-260.00400000000002</v>
+      </c>
+      <c r="C15">
+        <v>173.947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-315.721</v>
+      </c>
+      <c r="C16">
+        <v>196.02500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-352.48700000000002</v>
+      </c>
+      <c r="C17">
+        <v>215.464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-362.95100000000002</v>
+      </c>
+      <c r="C18">
+        <v>238.22200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-342.65899999999999</v>
+      </c>
+      <c r="C19">
+        <v>257.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-291.17599999999999</v>
+      </c>
+      <c r="C20">
+        <v>270.358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-212.69300000000001</v>
+      </c>
+      <c r="C21">
+        <v>277.01600000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-115.93300000000001</v>
+      </c>
+      <c r="C22">
+        <v>280.99200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-13.302</v>
+      </c>
+      <c r="C23">
+        <v>280.63499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>-12.733000000000001</v>
+      </c>
+      <c r="C24">
+        <v>277.89699999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-12.222</v>
+      </c>
+      <c r="C25">
+        <v>271.59300000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synge\IdeaProjects\сети_курсач\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8780E0-3AB8-47B6-8713-167A333C8937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A865D66-B97B-4CB7-A244-3CADC51F3EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +353,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,7 +366,7 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="C1">
-        <v>0.20799999999999999</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
